--- a/data/materials_sources.xlsx
+++ b/data/materials_sources.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\1_Projects\18033_ARCH504_Studio\ARCH504_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmendeze/Documents/UW/02_teaching/00_courses/mendez_meek_2021/02_code/studio2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3AFD34-288E-0F4E-89F3-FF5C2D6230A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="504" windowWidth="33600" windowHeight="20496"/>
+    <workbookView xWindow="40660" yWindow="460" windowWidth="39460" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opaque" sheetId="2" r:id="rId1"/>
@@ -18,26 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opaque!$A$1:$K$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>Interior Finish</t>
   </si>
@@ -311,11 +303,23 @@
   <si>
     <t>specific heat (J/kg-K)</t>
   </si>
+  <si>
+    <t>Embodied values for glass have been taken from EC3</t>
+  </si>
+  <si>
+    <t>The conservative value was used</t>
+  </si>
+  <si>
+    <t>As an example EPD, we used :</t>
+  </si>
+  <si>
+    <t>https://buildingtransparency.org/ec3/epds/ec3xpehk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -777,27 +781,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="10" width="21.77734375" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="10" width="21.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
     <col min="12" max="12" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -835,7 +839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
@@ -869,7 +873,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
@@ -903,7 +907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
@@ -937,7 +941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -977,7 +981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1170,7 +1174,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>1</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
@@ -1354,7 +1358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1438,7 +1442,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1452,13 +1456,13 @@
       <c r="K19" s="12"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1466,7 +1470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -1482,7 +1486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -1523,18 +1527,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K10">
-    <sortState ref="A2:G20">
+  <autoFilter ref="A1:K10" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G20">
       <sortCondition descending="1" ref="A1:A20"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1"/>
-    <hyperlink ref="C22" r:id="rId2"/>
-    <hyperlink ref="C24" r:id="rId3"/>
-    <hyperlink ref="C26" r:id="rId4"/>
-    <hyperlink ref="C27" r:id="rId5"/>
-    <hyperlink ref="C28" r:id="rId6"/>
+    <hyperlink ref="C21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C26" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C27" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
@@ -1542,20 +1546,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1572,7 +1577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1583,7 +1588,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1594,7 +1599,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1605,7 +1610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1613,7 +1618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1627,7 +1632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1639,7 +1644,7 @@
       </c>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1650,13 +1655,33 @@
         <v>0.49</v>
       </c>
       <c r="K8" s="25"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K6:K8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K6" r:id="rId1"/>
+    <hyperlink ref="K6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
